--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2880538.677268883</v>
+        <v>2878143.021263703</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8771601.928823246</v>
+        <v>8771601.928823244</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>223.8249895979765</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>118.5626808645819</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>147.6786976141386</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -871,13 +871,13 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>126.13796344096</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>142.7166733408787</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>300.1640908439655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>104.7555855911415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.59186093081873</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>69.35359439861627</v>
       </c>
       <c r="F8" t="n">
-        <v>287.8397615504667</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674702</v>
+        <v>60.55071286939874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>90.85912858529824</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.693051905693</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2975606693053</v>
+        <v>1145.177907350042</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2975606693053</v>
+        <v>1145.177907350042</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2975606693053</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2975606693053</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054111</v>
+        <v>779.9667079940879</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4328,52 +4328,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1639.221481546043</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1793.271146240433</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1440.502490970319</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1067.036732709239</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>676.897400733427</v>
+        <v>1531.777747414164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025152</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798001</v>
+        <v>1039.200821018973</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.053459231333</v>
+        <v>1680.224030638867</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>1919.028982390326</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.6588426383016</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C4" t="n">
-        <v>617.4884410078586</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>467.3718015955229</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383016</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>766.6588426383016</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="V4" t="n">
-        <v>766.6588426383016</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="W4" t="n">
-        <v>766.6588426383016</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="X4" t="n">
-        <v>766.6588426383016</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.6588426383016</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.012023266461</v>
+        <v>892.5163971443467</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.012023266461</v>
+        <v>892.5163971443467</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>892.5163971443467</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>506.7281445461024</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718591</v>
+        <v>499.782643796899</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599814</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599814</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.347406599814</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.347406599814</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X5" t="n">
-        <v>2078.151355242273</v>
+        <v>1279.116237208468</v>
       </c>
       <c r="Y5" t="n">
-        <v>1688.012023266461</v>
+        <v>1279.116237208468</v>
       </c>
     </row>
     <row r="6">
@@ -4629,34 +4629,34 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552865</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>985.9094059716012</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463927</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.3139360495154</v>
+        <v>370.6294478436281</v>
       </c>
       <c r="C7" t="n">
-        <v>456.3777531216085</v>
+        <v>370.6294478436281</v>
       </c>
       <c r="D7" t="n">
-        <v>306.2611137092728</v>
+        <v>220.5128084312924</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4756,19 +4756,19 @@
         <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.744530921303</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.744530921303</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.744530921303</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.754980023285</v>
+        <v>773.070491817398</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.9624008797551</v>
+        <v>552.2779126738678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1532.695465266222</v>
+        <v>933.1596152839988</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.73294832581</v>
+        <v>564.1970983435872</v>
       </c>
       <c r="D8" t="n">
-        <v>805.4672497190597</v>
+        <v>205.9313997368367</v>
       </c>
       <c r="E8" t="n">
-        <v>419.6789971208155</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
         <v>128.9317632314552</v>
@@ -4799,16 +4799,16 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797416</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527302</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266222</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1532.695465266222</v>
+        <v>1319.759455348121</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>965.564585834469</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1965.620148003311</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451305</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172236</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048879</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224948</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245844</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116918</v>
+        <v>743.3927864263228</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>515.4032355283055</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753702</v>
+        <v>294.6106563847753</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>139.234765840794</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.917417812163</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.917417812163</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>267.6802639609656</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>267.6802639609656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>267.6802639609656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6677,58 +6677,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6917,25 +6917,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7979,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>164.5570059766106</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
-        <v>248.76019003107</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>227.6567249260187</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>200.7458546176086</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3759750973102</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530996</v>
       </c>
       <c r="N9" t="n">
-        <v>191.4694788103611</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>232.4400048971989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194356</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>49.43558426092565</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112519373</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793113.3107117728</v>
+        <v>793113.3107117724</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983665</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983665</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752100.1003983668</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695091</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695075</v>
@@ -26433,31 +26433,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695002</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695114</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.3894495136</v>
+        <v>-511454.3894495157</v>
       </c>
       <c r="C6" t="n">
-        <v>282047.2562613812</v>
+        <v>282047.2562613841</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512767</v>
+        <v>454811.6160512766</v>
       </c>
       <c r="E6" t="n">
-        <v>57597.0666429024</v>
+        <v>57562.32871746656</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632175</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632176</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="J6" t="n">
-        <v>389071.9175626048</v>
+        <v>389037.179637169</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886528</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="M6" t="n">
-        <v>427601.4774844172</v>
+        <v>427566.7395589818</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886528</v>
+        <v>558451.1964632171</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>647.4981915352464</v>
+      </c>
+      <c r="C4" t="n">
         <v>647.4981915352465</v>
       </c>
-      <c r="C4" t="n">
-        <v>647.4981915352466</v>
-      </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>183.0510561437349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>267.6752577914717</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56812348448923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>160.107297296859</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.8083500409907</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>69.56700983450355</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>41.67837705542765</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>83.89879858218239</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>312.5767756736455</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0362841912447</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139825</v>
+        <v>105.7457139813308</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.283470503043547e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>442.4521770035141</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9773130123399</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>401.7263824550185</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>595.0989468658332</v>
       </c>
       <c r="O6" t="n">
-        <v>457.687773799867</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
@@ -35258,19 +35258,19 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N9" t="n">
-        <v>585.8225710585857</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>484.4366997103492</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
